--- a/Boletin_ Epi_Pereira/Datos/ira.xlsx
+++ b/Boletin_ Epi_Pereira/Datos/ira.xlsx
@@ -1,23 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Dropbox\SIVIGILA\boletin epidemiologico per\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JorgeMario/Desktop/boletin epidemiologico per/boletin epidemiologico per/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B48F357-D903-4694-B9B1-84A22726E1B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE2D644-A263-A946-AE8E-98A44C560D7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3060" yWindow="1580" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -433,23 +442,23 @@
   <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -478,1512 +487,1512 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>904.12915653162167</v>
+        <v>971.4468142903919</v>
       </c>
       <c r="C2" s="1">
-        <v>1694.5875199856141</v>
+        <v>1780.5645108513033</v>
       </c>
       <c r="D2" s="1">
-        <v>29.77665358595468</v>
+        <v>31.658975741319036</v>
       </c>
       <c r="E2" s="1">
-        <v>41.366275506498575</v>
+        <v>43.397862794472346</v>
       </c>
       <c r="F2" s="1">
-        <v>0.50906908320022903</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>3.2807663846142403</v>
+        <v>7.6025273737795205</v>
       </c>
       <c r="H2" s="1">
-        <v>1036.6320978370381</v>
+        <v>1250.0679692072051</v>
       </c>
       <c r="I2" s="1">
-        <v>1838.6834713157832</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1809.2197921651127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>1017.8881654599634</v>
+        <v>1093.1602146488808</v>
       </c>
       <c r="C3" s="1">
-        <v>2205.9744215393735</v>
+        <v>2235.9492444492198</v>
       </c>
       <c r="D3" s="1">
-        <v>32.091435717402511</v>
+        <v>29.191009608963959</v>
       </c>
       <c r="E3" s="1">
-        <v>48.469067295093403</v>
+        <v>48.026499565595181</v>
       </c>
       <c r="F3" s="1">
-        <v>1.1237874464729745</v>
+        <v>1.2665059614905216</v>
       </c>
       <c r="G3" s="1">
-        <v>4.332969195069956</v>
+        <v>13.602170013570685</v>
       </c>
       <c r="H3" s="1">
-        <v>1001.7595736157253</v>
+        <v>1051.0465032839538</v>
       </c>
       <c r="I3" s="1">
-        <v>2183.4661551795862</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2212.4267778240905</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>1012.5461194050876</v>
+        <v>1044.0787588249043</v>
       </c>
       <c r="C4" s="1">
-        <v>2066.3257174260111</v>
+        <v>2091.6435520773657</v>
       </c>
       <c r="D4" s="1">
-        <v>34.472263876660016</v>
+        <v>37.246475940258243</v>
       </c>
       <c r="E4" s="1">
-        <v>53.102915061591979</v>
+        <v>58.472970984728327</v>
       </c>
       <c r="F4" s="1">
-        <v>0.54622437821894843</v>
+        <v>-0.14537929016844717</v>
       </c>
       <c r="G4" s="1">
-        <v>2.904795763481764</v>
+        <v>10.614043921264603</v>
       </c>
       <c r="H4" s="1">
-        <v>1026.9150360006072</v>
+        <v>1047.6081773373319</v>
       </c>
       <c r="I4" s="1">
-        <v>2058.750242715671</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2079.0171703176143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>910.8026117536333</v>
+        <v>921.93088850832385</v>
       </c>
       <c r="C5" s="1">
-        <v>1771.6061485226276</v>
+        <v>1788.2785558480257</v>
       </c>
       <c r="D5" s="1">
-        <v>26.359603802602194</v>
+        <v>26.552139829598282</v>
       </c>
       <c r="E5" s="1">
-        <v>66.864741947783529</v>
+        <v>60.337782330763048</v>
       </c>
       <c r="F5" s="1">
-        <v>9.3042905996001915E-2</v>
+        <v>-0.48308098005425659</v>
       </c>
       <c r="G5" s="1">
-        <v>3.3177777803702329</v>
+        <v>8.9064371494798777</v>
       </c>
       <c r="H5" s="1">
-        <v>1062.5767811642149</v>
+        <v>1004.1185591534943</v>
       </c>
       <c r="I5" s="1">
-        <v>1857.8074055468801</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1889.1168716032244</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>796.49095245871604</v>
+        <v>778.78011945183187</v>
       </c>
       <c r="C6" s="1">
-        <v>1785.5044570962598</v>
+        <v>1790.1431360026795</v>
       </c>
       <c r="D6" s="1">
-        <v>31.248998927176039</v>
+        <v>29.232588151031653</v>
       </c>
       <c r="E6" s="1">
-        <v>45.222927257628633</v>
+        <v>47.394151311242304</v>
       </c>
       <c r="F6" s="1">
-        <v>1.1898388075581556</v>
+        <v>0.61726442361114053</v>
       </c>
       <c r="G6" s="1">
-        <v>2.5765038361054149</v>
+        <v>6.8822029732581802</v>
       </c>
       <c r="H6" s="1">
-        <v>1010.5917993123722</v>
+        <v>1016.477989261498</v>
       </c>
       <c r="I6" s="1">
-        <v>1796.6352401610529</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1815.5247522621596</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>774.22101722829234</v>
+        <v>728.41403227758019</v>
       </c>
       <c r="C7" s="1">
-        <v>1973.614623496379</v>
+        <v>1962.0476779257765</v>
       </c>
       <c r="D7" s="1">
-        <v>27.130600317180154</v>
+        <v>25.187427638647183</v>
       </c>
       <c r="E7" s="1">
-        <v>45.942126249486869</v>
+        <v>46.471743381082796</v>
       </c>
       <c r="F7" s="1">
-        <v>1.557852981375228</v>
+        <v>0.89995372826177711</v>
       </c>
       <c r="G7" s="1">
-        <v>3.6161768179535856</v>
+        <v>7.2419940370318878</v>
       </c>
       <c r="H7" s="1">
-        <v>1010.5640069248228</v>
+        <v>936.59515472825808</v>
       </c>
       <c r="I7" s="1">
-        <v>2017.5461447247239</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2069.2969084988795</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>814.24495114372144</v>
+        <v>754.13116938630719</v>
       </c>
       <c r="C8" s="1">
-        <v>2004.2875487158292</v>
+        <v>1955.4804165424734</v>
       </c>
       <c r="D8" s="1">
-        <v>33.840843780967013</v>
+        <v>26.833189744520496</v>
       </c>
       <c r="E8" s="1">
-        <v>54.389398243922486</v>
+        <v>51.570419672415497</v>
       </c>
       <c r="F8" s="1">
-        <v>1.1811195269435255</v>
+        <v>1.2029085035288407</v>
       </c>
       <c r="G8" s="1">
-        <v>3.9710999502801139</v>
+        <v>4.6058477150604942</v>
       </c>
       <c r="H8" s="1">
-        <v>1249.918591190461</v>
+        <v>1085.6299024804248</v>
       </c>
       <c r="I8" s="1">
-        <v>1876.4379423273851</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1973.2044526762047</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>864.17040371903943</v>
+        <v>798.16253021896694</v>
       </c>
       <c r="C9" s="1">
-        <v>2059.6673120917098</v>
+        <v>1999.6242507950767</v>
       </c>
       <c r="D9" s="1">
-        <v>30.168087543071891</v>
+        <v>30.491265511226185</v>
       </c>
       <c r="E9" s="1">
-        <v>45.218635096632482</v>
+        <v>46.818712353699055</v>
       </c>
       <c r="F9" s="1">
-        <v>1.898871100520874</v>
+        <v>1.836255507113483</v>
       </c>
       <c r="G9" s="1">
-        <v>5.6734128090850389</v>
+        <v>7.1572310223489177</v>
       </c>
       <c r="H9" s="1">
-        <v>1170.7152197186945</v>
+        <v>1069.5079366927473</v>
       </c>
       <c r="I9" s="1">
-        <v>1959.0730782530597</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2022.0161585842111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>1203.8721255768853</v>
+        <v>1080.5649828568173</v>
       </c>
       <c r="C10" s="1">
-        <v>1802.2519504039549</v>
+        <v>1824.7436714239059</v>
       </c>
       <c r="D10" s="1">
-        <v>37.346931349031365</v>
+        <v>35.896898883399224</v>
       </c>
       <c r="E10" s="1">
-        <v>62.367796267185064</v>
+        <v>61.102046980624571</v>
       </c>
       <c r="F10" s="1">
-        <v>2.2949358217619009</v>
+        <v>1.6230422360538761</v>
       </c>
       <c r="G10" s="1">
-        <v>6.2819425038275574</v>
+        <v>7.2191898844774673</v>
       </c>
       <c r="H10" s="1">
-        <v>1348.1138981216156</v>
+        <v>1152.9778476614854</v>
       </c>
       <c r="I10" s="1">
-        <v>1841.8455557837087</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1940.4454373451956</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>1121.58329603525</v>
+        <v>1021.2598330147413</v>
       </c>
       <c r="C11" s="1">
-        <v>1910.2021564745003</v>
+        <v>1876.9546174303991</v>
       </c>
       <c r="D11" s="1">
-        <v>38.538292129801135</v>
+        <v>33.082236044555799</v>
       </c>
       <c r="E11" s="1">
-        <v>61.978971076323262</v>
+        <v>61.428865326878295</v>
       </c>
       <c r="F11" s="1">
-        <v>1.4557293797507012</v>
+        <v>2.0064936880299142</v>
       </c>
       <c r="G11" s="1">
-        <v>5.0803050151963367</v>
+        <v>5.0230080065512688</v>
       </c>
       <c r="H11" s="1">
-        <v>1350.7554950902916</v>
+        <v>1219.0040568316565</v>
       </c>
       <c r="I11" s="1">
-        <v>2556.4396918418292</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2637.2658716424367</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>1209.4025378066779</v>
+        <v>1037.149670592883</v>
       </c>
       <c r="C12" s="1">
-        <v>2052.4691830761622</v>
+        <v>2081.3930750627078</v>
       </c>
       <c r="D12" s="1">
-        <v>34.686235911313922</v>
+        <v>32.641311240413813</v>
       </c>
       <c r="E12" s="1">
-        <v>53.592045800453683</v>
+        <v>52.593510281801542</v>
       </c>
       <c r="F12" s="1">
-        <v>2.2650611544328001</v>
+        <v>1.0168452598053257</v>
       </c>
       <c r="G12" s="1">
-        <v>4.6269340295425696</v>
+        <v>9.3550897436922504</v>
       </c>
       <c r="H12" s="1">
-        <v>1230.7207802623398</v>
+        <v>1033.5675406836835</v>
       </c>
       <c r="I12" s="1">
-        <v>2055.0074002456058</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2112.8347050198945</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>1206.3201036942282</v>
+        <v>1072.6089919195406</v>
       </c>
       <c r="C13" s="1">
-        <v>2007.8619077616204</v>
+        <v>2041.4736698415029</v>
       </c>
       <c r="D13" s="1">
-        <v>33.98377781986278</v>
+        <v>33.314438851070541</v>
       </c>
       <c r="E13" s="1">
-        <v>63.538965874604706</v>
+        <v>56.616398504316386</v>
       </c>
       <c r="F13" s="1">
-        <v>2.5556933650954177</v>
+        <v>2.1365475510549885</v>
       </c>
       <c r="G13" s="1">
-        <v>3.9620044787838427</v>
+        <v>5.9967702740212667</v>
       </c>
       <c r="H13" s="1">
-        <v>1186.5764183641197</v>
+        <v>1021.1643108294492</v>
       </c>
       <c r="I13" s="1">
-        <v>2023.4735248136797</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2034.9777992412526</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>970.84990932543815</v>
+        <v>841.34808356339533</v>
       </c>
       <c r="C14" s="1">
-        <v>1950.439035455662</v>
+        <v>1899.6455734874778</v>
       </c>
       <c r="D14" s="1">
-        <v>33.963451521120838</v>
+        <v>30.704162403605544</v>
       </c>
       <c r="E14" s="1">
-        <v>60.587845773660263</v>
+        <v>55.513506045058755</v>
       </c>
       <c r="F14" s="1">
-        <v>1.1518651233136328</v>
+        <v>1.6051227620051636</v>
       </c>
       <c r="G14" s="1">
-        <v>7.0421306643994352</v>
+        <v>6.5430461377124569</v>
       </c>
       <c r="H14" s="1">
-        <v>1071.1457586942308</v>
+        <v>902.02931076960954</v>
       </c>
       <c r="I14" s="1">
-        <v>2041.8753505570874</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2070.2690368987046</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>1025.4001859822995</v>
+        <v>1050.8778680861019</v>
       </c>
       <c r="C15" s="1">
-        <v>1836.3441221807941</v>
+        <v>1860.5612717752681</v>
       </c>
       <c r="D15" s="1">
-        <v>33.493049513158908</v>
+        <v>29.012866045333404</v>
       </c>
       <c r="E15" s="1">
-        <v>61.209247517722488</v>
+        <v>57.115974172186583</v>
       </c>
       <c r="F15" s="1">
-        <v>2.0320459705858158</v>
+        <v>1.4353357214912421</v>
       </c>
       <c r="G15" s="1">
-        <v>5.5231071276724579</v>
+        <v>9.8343154537139288</v>
       </c>
       <c r="H15" s="1">
-        <v>1476.7822027259608</v>
+        <v>1321.5257083051845</v>
       </c>
       <c r="I15" s="1">
-        <v>2045.2128578523329</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1982.548150519407</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>970.88143100312334</v>
+        <v>985.23014665659343</v>
       </c>
       <c r="C16" s="1">
-        <v>2330.2035195614126</v>
+        <v>2359.4860985467731</v>
       </c>
       <c r="D16" s="1">
-        <v>22.476376490211614</v>
+        <v>21.308362077283171</v>
       </c>
       <c r="E16" s="1">
-        <v>58.706880344753891</v>
+        <v>57.739281985368549</v>
       </c>
       <c r="F16" s="1">
-        <v>0.95157880062161848</v>
+        <v>0.46296493749927575</v>
       </c>
       <c r="G16" s="1">
-        <v>5.6577882733080154</v>
+        <v>11.671011639666306</v>
       </c>
       <c r="H16" s="1">
-        <v>945.68396003946816</v>
+        <v>1027.7343966187791</v>
       </c>
       <c r="I16" s="1">
-        <v>2341.8745657943036</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2391.6419538075338</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>1085.6799274770983</v>
+        <v>1077.7102638720194</v>
       </c>
       <c r="C17" s="1">
-        <v>1863.8594041379476</v>
+        <v>1859.9551690142262</v>
       </c>
       <c r="D17" s="1">
-        <v>31.428113483403738</v>
+        <v>27.613540481852681</v>
       </c>
       <c r="E17" s="1">
-        <v>74.84055065327297</v>
+        <v>60.830844216519914</v>
       </c>
       <c r="F17" s="1">
-        <v>1.0100303319194519</v>
+        <v>0.57380517519360241</v>
       </c>
       <c r="G17" s="1">
-        <v>11.386359395280227</v>
+        <v>13.836316562084001</v>
       </c>
       <c r="H17" s="1">
-        <v>1033.0393039604055</v>
+        <v>1122.6986901319997</v>
       </c>
       <c r="I17" s="1">
-        <v>1958.495518735117</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1975.8555489205273</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>1121.4195552393492</v>
+        <v>1022.7736590051419</v>
       </c>
       <c r="C18" s="1">
-        <v>2025.44338617689</v>
+        <v>1977.3124454925016</v>
       </c>
       <c r="D18" s="1">
-        <v>30.612170186906866</v>
+        <v>28.836776642383356</v>
       </c>
       <c r="E18" s="1">
-        <v>62.476353402494247</v>
+        <v>54.749365042316505</v>
       </c>
       <c r="F18" s="1">
-        <v>1.8777077514160914</v>
+        <v>1.0579121266390497</v>
       </c>
       <c r="G18" s="1">
-        <v>4.9641984129297185</v>
+        <v>12.536615800805663</v>
       </c>
       <c r="H18" s="1">
-        <v>1009.9688206263702</v>
+        <v>952.44408490885633</v>
       </c>
       <c r="I18" s="1">
-        <v>2000.4139133294548</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2005.0001141488835</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>1003.4213493904527</v>
+        <v>881.74060239302503</v>
       </c>
       <c r="C19" s="1">
-        <v>2370.7439627415397</v>
+        <v>2293.2626025887216</v>
       </c>
       <c r="D19" s="1">
-        <v>34.481583708662768</v>
+        <v>32.819133678592742</v>
       </c>
       <c r="E19" s="1">
-        <v>81.8051630797424</v>
+        <v>59.687115869862232</v>
       </c>
       <c r="F19" s="1">
-        <v>2.2654537244319424</v>
+        <v>1.6215118986744443</v>
       </c>
       <c r="G19" s="1">
-        <v>6.2459324728463592</v>
+        <v>11.866152639669551</v>
       </c>
       <c r="H19" s="1">
-        <v>1158.7017805143437</v>
+        <v>929.94584040016082</v>
       </c>
       <c r="I19" s="1">
-        <v>2934.7136437269874</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2587.4300908348482</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>1339.3897717054328</v>
+        <v>1164.0197059031052</v>
       </c>
       <c r="C20" s="1">
-        <v>2402.314632242686</v>
+        <v>2356.3399236686037</v>
       </c>
       <c r="D20" s="1">
-        <v>25.589539708297277</v>
+        <v>19.997371885613287</v>
       </c>
       <c r="E20" s="1">
-        <v>62.964435675544941</v>
+        <v>53.937530453809572</v>
       </c>
       <c r="F20" s="1">
-        <v>0.7339525811885389</v>
+        <v>2.0089165782167102</v>
       </c>
       <c r="G20" s="1">
-        <v>5.4811873502406678</v>
+        <v>6.209914693015703</v>
       </c>
       <c r="H20" s="1">
-        <v>1225.6954130907895</v>
+        <v>1152.0039061401544</v>
       </c>
       <c r="I20" s="1">
-        <v>2619.4248047232813</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2658.9294342120365</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>1490.0162151327706</v>
+        <v>1421.8614390458604</v>
       </c>
       <c r="C21" s="1">
-        <v>1909.5069424369894</v>
+        <v>2593.516412388859</v>
       </c>
       <c r="D21" s="1">
-        <v>32.686793535616644</v>
+        <v>28.497652854160226</v>
       </c>
       <c r="E21" s="1">
-        <v>70.227616962463514</v>
+        <v>63.158544806128965</v>
       </c>
       <c r="F21" s="1">
-        <v>1.8336213115939277</v>
+        <v>0.87627920692977646</v>
       </c>
       <c r="G21" s="1">
-        <v>5.0398588295380424</v>
+        <v>13.09356284449758</v>
       </c>
       <c r="H21" s="1">
-        <v>1323.2953079787349</v>
+        <v>1386.8353023027225</v>
       </c>
       <c r="I21" s="1">
-        <v>2267.2839228112116</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2864.0271691370613</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>1386.2740049934412</v>
+        <v>1308.2421143458348</v>
       </c>
       <c r="C22" s="1">
-        <v>2206.5812867369063</v>
+        <v>2247.9915234650521</v>
       </c>
       <c r="D22" s="1">
-        <v>31.747646268036249</v>
+        <v>28.276795806558503</v>
       </c>
       <c r="E22" s="1">
-        <v>64.500520989235497</v>
+        <v>58.50704459134986</v>
       </c>
       <c r="F22" s="1">
-        <v>2.8691878301950782</v>
+        <v>0.77725187146398489</v>
       </c>
       <c r="G22" s="1">
-        <v>7.4543619448929102</v>
+        <v>13.116379788732946</v>
       </c>
       <c r="H22" s="1">
-        <v>1480.2935879666541</v>
+        <v>1320.4879413628546</v>
       </c>
       <c r="I22" s="1">
-        <v>2087.9256847383303</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2160.1312611810908</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>1265.1111249449539</v>
+        <v>1252.5670533675705</v>
       </c>
       <c r="C23" s="1">
-        <v>2142.5665043877743</v>
+        <v>2137.5067212942408</v>
       </c>
       <c r="D23" s="1">
-        <v>34.68097252822745</v>
+        <v>31.475092175899974</v>
       </c>
       <c r="E23" s="1">
-        <v>72.268312844498283</v>
+        <v>65.189770304041502</v>
       </c>
       <c r="F23" s="1">
-        <v>2.1349586245610483</v>
+        <v>1.0603230890581246</v>
       </c>
       <c r="G23" s="1">
-        <v>12.894203336671973</v>
+        <v>20.950244738017791</v>
       </c>
       <c r="H23" s="1">
-        <v>1346.9074468936437</v>
+        <v>1347.7405134768785</v>
       </c>
       <c r="I23" s="1">
-        <v>2161.047951350743</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2179.9476527154879</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>1207.8466304826834</v>
+        <v>1210.5169188220557</v>
       </c>
       <c r="C24" s="1">
-        <v>2057.3241101135845</v>
+        <v>2060.9415577669274</v>
       </c>
       <c r="D24" s="1">
-        <v>33.683009376773263</v>
+        <v>29.649831237024646</v>
       </c>
       <c r="E24" s="1">
-        <v>76.974253780134234</v>
+        <v>67.838313626024444</v>
       </c>
       <c r="F24" s="1">
-        <v>2.0260721897451441</v>
+        <v>0.43463843493416943</v>
       </c>
       <c r="G24" s="1">
-        <v>6.9691998600070875</v>
+        <v>13.777843758991335</v>
       </c>
       <c r="H24" s="1">
-        <v>1247.1521919277907</v>
+        <v>1321.8269064240312</v>
       </c>
       <c r="I24" s="1">
-        <v>1779.4877571736306</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1809.3188191251866</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>1154.1467402840137</v>
+        <v>1238.9983489701654</v>
       </c>
       <c r="C25" s="1">
-        <v>1806.964626523308</v>
+        <v>1886.0696048665998</v>
       </c>
       <c r="D25" s="1">
-        <v>36.525018286350672</v>
+        <v>36.530437452251348</v>
       </c>
       <c r="E25" s="1">
-        <v>71.126702797325891</v>
+        <v>77.837403231420893</v>
       </c>
       <c r="F25" s="1">
-        <v>2.2713915397061069</v>
+        <v>0.74614619717547059</v>
       </c>
       <c r="G25" s="1">
-        <v>4.6094295706292243</v>
+        <v>12.336143006420929</v>
       </c>
       <c r="H25" s="1">
-        <v>1255.8159860171352</v>
+        <v>1287.8349208911511</v>
       </c>
       <c r="I25" s="1">
-        <v>1961.8730864383774</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1995.7350044877496</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>1124.4725493111273</v>
+        <v>1224.4361120502838</v>
       </c>
       <c r="C26" s="1">
-        <v>1688.7846328236826</v>
+        <v>1828.3213739199093</v>
       </c>
       <c r="D26" s="1">
-        <v>35.040880241820602</v>
+        <v>34.006836560853564</v>
       </c>
       <c r="E26" s="1">
-        <v>82.526800229068556</v>
+        <v>66.871866804381966</v>
       </c>
       <c r="F26" s="1">
-        <v>2.6497039722795646</v>
+        <v>0.85220670375595609</v>
       </c>
       <c r="G26" s="1">
-        <v>5.5927160066546318</v>
+        <v>12.91212535806809</v>
       </c>
       <c r="H26" s="1">
-        <v>1193.8303394542072</v>
+        <v>1251.6600326112484</v>
       </c>
       <c r="I26" s="1">
-        <v>1803.7229233708197</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1898.9286306416375</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>1068.295339623246</v>
+        <v>1142.7225604976086</v>
       </c>
       <c r="C27" s="1">
-        <v>1632.0109794011387</v>
+        <v>1768.7295918433765</v>
       </c>
       <c r="D27" s="1">
-        <v>39.804200794586784</v>
+        <v>35.874865238665429</v>
       </c>
       <c r="E27" s="1">
-        <v>59.059947114615866</v>
+        <v>56.945856561324227</v>
       </c>
       <c r="F27" s="1">
-        <v>0.15115668551123043</v>
+        <v>0.99796941324189015</v>
       </c>
       <c r="G27" s="1">
-        <v>13.591216561335177</v>
+        <v>12.029196428581761</v>
       </c>
       <c r="H27" s="1">
-        <v>1082.1930642563807</v>
+        <v>1283.5559003356175</v>
       </c>
       <c r="I27" s="1">
-        <v>1828.7873759117224</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1881.374304444553</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>1012.5959302003453</v>
+        <v>1173.5264170235389</v>
       </c>
       <c r="C28" s="1">
-        <v>1765.7512085499952</v>
+        <v>1795.5537734874013</v>
       </c>
       <c r="D28" s="1">
-        <v>32.520132318884784</v>
+        <v>31.143370537074144</v>
       </c>
       <c r="E28" s="1">
-        <v>70.528424425568502</v>
+        <v>66.377763240603556</v>
       </c>
       <c r="F28" s="1">
-        <v>0.96389326967986377</v>
+        <v>2.4741685092976136</v>
       </c>
       <c r="G28" s="1">
-        <v>12.099576790629365</v>
+        <v>14.53697045512749</v>
       </c>
       <c r="H28" s="1">
-        <v>1167.6994373163354</v>
+        <v>1264.4890982436953</v>
       </c>
       <c r="I28" s="1">
-        <v>1682.8378541107288</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1692.9113292832333</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>999.01022592410845</v>
+        <v>1123.2289478705818</v>
       </c>
       <c r="C29" s="1">
-        <v>1643.1355630732796</v>
+        <v>1735.3689001353794</v>
       </c>
       <c r="D29" s="1">
-        <v>28.897459381829464</v>
+        <v>27.648625681479825</v>
       </c>
       <c r="E29" s="1">
-        <v>58.776362280310842</v>
+        <v>56.280287823513618</v>
       </c>
       <c r="F29" s="1">
-        <v>0.6517898548556279</v>
+        <v>0.92039832768223317</v>
       </c>
       <c r="G29" s="1">
-        <v>8.7898367778130613</v>
+        <v>10.442456451640593</v>
       </c>
       <c r="H29" s="1">
-        <v>1143.8371048017152</v>
+        <v>1247.8330450503424</v>
       </c>
       <c r="I29" s="1">
-        <v>1750.8923021003425</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1793.9076039235269</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>1075.2914706285928</v>
+        <v>1256.7056020780365</v>
       </c>
       <c r="C30" s="1">
-        <v>1775.1140967648309</v>
+        <v>1736.6597742024705</v>
       </c>
       <c r="D30" s="1">
-        <v>32.134052990335924</v>
+        <v>33.161602404274937</v>
       </c>
       <c r="E30" s="1">
-        <v>51.110676622165705</v>
+        <v>53.502341959884923</v>
       </c>
       <c r="F30" s="1">
-        <v>1.0625055583806533</v>
+        <v>1.4035499388465529</v>
       </c>
       <c r="G30" s="1">
-        <v>8.7431991104927196</v>
+        <v>8.1329992127736688</v>
       </c>
       <c r="H30" s="1">
-        <v>1113.8750851705233</v>
+        <v>1199.5488836697682</v>
       </c>
       <c r="I30" s="1">
-        <v>1771.2863296768933</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1773.869014562458</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>1255.8962908286285</v>
+        <v>1317.0046216824551</v>
       </c>
       <c r="C31" s="1">
-        <v>1806.5871381830761</v>
+        <v>1810.0859506304218</v>
       </c>
       <c r="D31" s="1">
-        <v>37.015000780483412</v>
+        <v>34.069799496936781</v>
       </c>
       <c r="E31" s="1">
-        <v>68.266350097294065</v>
+        <v>51.510588888551716</v>
       </c>
       <c r="F31" s="1">
-        <v>0.93146877139185613</v>
+        <v>2.2161579494534029</v>
       </c>
       <c r="G31" s="1">
-        <v>11.200631941042722</v>
+        <v>11.23238042859006</v>
       </c>
       <c r="H31" s="1">
-        <v>1209.4441462964917</v>
+        <v>1320.8509732512625</v>
       </c>
       <c r="I31" s="1">
-        <v>1965.4958688140637</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1943.7090532349725</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>1078.3583065568887</v>
+        <v>1109.2527695182562</v>
       </c>
       <c r="C32" s="1">
-        <v>1761.9274338464061</v>
+        <v>1777.2463325932451</v>
       </c>
       <c r="D32" s="1">
-        <v>34.80602057251977</v>
+        <v>31.513364142945566</v>
       </c>
       <c r="E32" s="1">
-        <v>58.082642100046996</v>
+        <v>51.374744928700601</v>
       </c>
       <c r="F32" s="1">
-        <v>1.9624153541774689</v>
+        <v>1.955641213225676</v>
       </c>
       <c r="G32" s="1">
-        <v>5.5961429143001347</v>
+        <v>9.2531000751063619</v>
       </c>
       <c r="H32" s="1">
-        <v>1306.3914826002831</v>
+        <v>1217.8395296263025</v>
       </c>
       <c r="I32" s="1">
-        <v>1881.7271709945255</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1912.5411963922277</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>987.70799609352707</v>
+        <v>986.03707246240708</v>
       </c>
       <c r="C33" s="1">
-        <v>1584.8797023248719</v>
+        <v>1602.5712018936631</v>
       </c>
       <c r="D33" s="1">
-        <v>28.968315695384764</v>
+        <v>23.553894120957704</v>
       </c>
       <c r="E33" s="1">
-        <v>69.719536466677141</v>
+        <v>46.260628579097052</v>
       </c>
       <c r="F33" s="1">
-        <v>1.3277851469723054</v>
+        <v>1.8989055584626304</v>
       </c>
       <c r="G33" s="1">
-        <v>12.051969924452841</v>
+        <v>8.5283036266917414</v>
       </c>
       <c r="H33" s="1">
-        <v>1188.8225723496482</v>
+        <v>1123.1953175451911</v>
       </c>
       <c r="I33" s="1">
-        <v>1862.602151004309</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1917.3855582330843</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>904.57853794202197</v>
+        <v>850.49147731169512</v>
       </c>
       <c r="C34" s="1">
-        <v>1492.0040620783686</v>
+        <v>1509.6353635301741</v>
       </c>
       <c r="D34" s="1">
-        <v>26.487166732249072</v>
+        <v>17.734948215893716</v>
       </c>
       <c r="E34" s="1">
-        <v>45.36027386272778</v>
+        <v>44.515363795945511</v>
       </c>
       <c r="F34" s="1">
-        <v>1.6529115885927228</v>
+        <v>1.5679725148546975</v>
       </c>
       <c r="G34" s="1">
-        <v>7.7115589911650098</v>
+        <v>6.9189088838408699</v>
       </c>
       <c r="H34" s="1">
-        <v>1016.9893758543546</v>
+        <v>1004.4876387333192</v>
       </c>
       <c r="I34" s="1">
-        <v>1760.6472139424966</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1790.1073821039063</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>795.25823669367787</v>
+        <v>833.40095914099561</v>
       </c>
       <c r="C35" s="1">
-        <v>1519.3205812203137</v>
+        <v>1554.6883179040569</v>
       </c>
       <c r="D35" s="1">
-        <v>23.786615640459214</v>
+        <v>26.971270279077874</v>
       </c>
       <c r="E35" s="1">
-        <v>42.425757395172042</v>
+        <v>36.841121450373869</v>
       </c>
       <c r="F35" s="1">
-        <v>1.5827856927765527</v>
+        <v>2.0951789227838518</v>
       </c>
       <c r="G35" s="1">
-        <v>5.2951622891904329</v>
+        <v>8.9086084754371537</v>
       </c>
       <c r="H35" s="1">
-        <v>1062.4897078596941</v>
+        <v>1128.3859085483257</v>
       </c>
       <c r="I35" s="1">
-        <v>1825.4739707541587</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1822.4287781003293</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>824.57282274259126</v>
+        <v>830.01447671512256</v>
       </c>
       <c r="C36" s="1">
-        <v>1793.1247176902671</v>
+        <v>1807.9209632971156</v>
       </c>
       <c r="D36" s="1">
-        <v>29.296487909929816</v>
+        <v>25.442973128204486</v>
       </c>
       <c r="E36" s="1">
-        <v>47.524234261672461</v>
+        <v>44.965251999690082</v>
       </c>
       <c r="F36" s="1">
-        <v>0.5341262323825825</v>
+        <v>0.26066956773264877</v>
       </c>
       <c r="G36" s="1">
-        <v>5.6567788519910094</v>
+        <v>14.009539508603309</v>
       </c>
       <c r="H36" s="1">
-        <v>1061.7935975026078</v>
+        <v>1137.9751878872416</v>
       </c>
       <c r="I36" s="1">
-        <v>2061.8167692820284</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2054.9803126832417</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>841.08248499926765</v>
+        <v>863.61970744844882</v>
       </c>
       <c r="C37" s="1">
-        <v>1932.406069938002</v>
+        <v>1960.9007383821527</v>
       </c>
       <c r="D37" s="1">
-        <v>27.04926568696904</v>
+        <v>25.080878378847</v>
       </c>
       <c r="E37" s="1">
-        <v>38.423031069726527</v>
+        <v>39.053635458989731</v>
       </c>
       <c r="F37" s="1">
-        <v>1.2501422507623623</v>
+        <v>0.12232270882065877</v>
       </c>
       <c r="G37" s="1">
-        <v>3.9247513387936652</v>
+        <v>10.5402378945987</v>
       </c>
       <c r="H37" s="1">
-        <v>1097.7280144616311</v>
+        <v>1232.2802635320336</v>
       </c>
       <c r="I37" s="1">
-        <v>2282.0238906209329</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2240.3888429894446</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>800.07570349960747</v>
+        <v>803.62820956944915</v>
       </c>
       <c r="C38" s="1">
-        <v>1731.9144813702167</v>
+        <v>1741.2144455471232</v>
       </c>
       <c r="D38" s="1">
-        <v>23.28791992494585</v>
+        <v>21.2186927919727</v>
       </c>
       <c r="E38" s="1">
-        <v>37.101998517777382</v>
+        <v>36.418198648996658</v>
       </c>
       <c r="F38" s="1">
-        <v>0.561943239484611</v>
+        <v>1</v>
       </c>
       <c r="G38" s="1">
-        <v>4.2755306785131992</v>
+        <v>8.6337793185394567</v>
       </c>
       <c r="H38" s="1">
-        <v>1094.408992537634</v>
+        <v>1185.7284012768591</v>
       </c>
       <c r="I38" s="1">
-        <v>2114.1015082880685</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2106.2786549222046</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>794.04795575526009</v>
+        <v>808.0288412345293</v>
       </c>
       <c r="C39" s="1">
-        <v>1786.0862302208886</v>
+        <v>1810.4802003396705</v>
       </c>
       <c r="D39" s="1">
-        <v>26.32627424665829</v>
+        <v>26.472843407598106</v>
       </c>
       <c r="E39" s="1">
-        <v>46.718982490165587</v>
+        <v>37.67977494984553</v>
       </c>
       <c r="F39" s="1">
-        <v>0.6315206057280337</v>
+        <v>0.69291498968993914</v>
       </c>
       <c r="G39" s="1">
-        <v>8.5322314200405636</v>
+        <v>11.591027527058978</v>
       </c>
       <c r="H39" s="1">
-        <v>1065.7822912871964</v>
+        <v>1154.7362001501278</v>
       </c>
       <c r="I39" s="1">
-        <v>2110.596800335481</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2100.8992800045262</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>901.08344454388191</v>
+        <v>917.64857471729977</v>
       </c>
       <c r="C40" s="1">
-        <v>1942.4257883426253</v>
+        <v>1965.323879007994</v>
       </c>
       <c r="D40" s="1">
-        <v>32.094620548103642</v>
+        <v>27.672670259013028</v>
       </c>
       <c r="E40" s="1">
-        <v>47.88653181755307</v>
+        <v>48.124783071288476</v>
       </c>
       <c r="F40" s="1">
-        <v>1.9044353743088525</v>
+        <v>-2.4897216291771404E-3</v>
       </c>
       <c r="G40" s="1">
-        <v>7.7165233722379893</v>
+        <v>15.425183590380298</v>
       </c>
       <c r="H40" s="1">
-        <v>1146.1998387295566</v>
+        <v>1225.3921396653893</v>
       </c>
       <c r="I40" s="1">
-        <v>2238.1653213305681</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2230.4921381010085</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>924.60966804295515</v>
+        <v>930.20488869594828</v>
       </c>
       <c r="C41" s="1">
-        <v>1679.2810439014936</v>
+        <v>1693.0473339681182</v>
       </c>
       <c r="D41" s="1">
-        <v>28.584780746001286</v>
+        <v>27.177424538469001</v>
       </c>
       <c r="E41" s="1">
-        <v>53.147627229530691</v>
+        <v>44.408751916493856</v>
       </c>
       <c r="F41" s="1">
-        <v>1.0583573680635958</v>
+        <v>0</v>
       </c>
       <c r="G41" s="1">
-        <v>6.9223601295850621</v>
+        <v>15.385245939191197</v>
       </c>
       <c r="H41" s="1">
-        <v>1073.1655109797528</v>
+        <v>1093.6160323450172</v>
       </c>
       <c r="I41" s="1">
-        <v>2155.5127298238358</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2174.4836055526771</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>41</v>
       </c>
       <c r="B42" s="1">
-        <v>860.73341857497974</v>
+        <v>891.30389317859397</v>
       </c>
       <c r="C42" s="1">
-        <v>1480.6112907153536</v>
+        <v>1496.7532361532783</v>
       </c>
       <c r="D42" s="1">
-        <v>29.217708113275528</v>
+        <v>29.015852399993147</v>
       </c>
       <c r="E42" s="1">
-        <v>45.656612917141999</v>
+        <v>44.863952238548585</v>
       </c>
       <c r="F42" s="1">
-        <v>0.68737566449016185</v>
+        <v>0</v>
       </c>
       <c r="G42" s="1">
-        <v>7.1844153533493484</v>
+        <v>14.853319134983737</v>
       </c>
       <c r="H42" s="1">
-        <v>1028.3595086109658</v>
+        <v>1032.4179899242217</v>
       </c>
       <c r="I42" s="1">
-        <v>1786.7535661329669</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1805.6207007036103</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>42</v>
       </c>
       <c r="B43" s="1">
-        <v>682.5489055697717</v>
+        <v>770.7328681743403</v>
       </c>
       <c r="C43" s="1">
-        <v>1801.6607698444946</v>
+        <v>1856.3767440751813</v>
       </c>
       <c r="D43" s="1">
-        <v>26.503125857187147</v>
+        <v>32.67629485144937</v>
       </c>
       <c r="E43" s="1">
-        <v>89.020801303077903</v>
+        <v>96.454017769779639</v>
       </c>
       <c r="F43" s="1">
-        <v>0.8370886368488698</v>
+        <v>0.18475425328662728</v>
       </c>
       <c r="G43" s="1">
-        <v>8.2096660850259848</v>
+        <v>14.061262101391636</v>
       </c>
       <c r="H43" s="1">
-        <v>1008.433046800165</v>
+        <v>1136.3933601111894</v>
       </c>
       <c r="I43" s="1">
-        <v>1994.742327498489</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1958.8176332469579</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>43</v>
       </c>
       <c r="B44" s="1">
-        <v>706.77550345815541</v>
+        <v>760.14719391196979</v>
       </c>
       <c r="C44" s="1">
-        <v>1561.227327754958</v>
+        <v>1654.9054529297239</v>
       </c>
       <c r="D44" s="1">
-        <v>32.797751932048456</v>
+        <v>32.394102134257238</v>
       </c>
       <c r="E44" s="1">
-        <v>64.993789364024039</v>
+        <v>65.465465395965609</v>
       </c>
       <c r="F44" s="1">
-        <v>0.34474716872737626</v>
+        <v>9.7005447850515375E-2</v>
       </c>
       <c r="G44" s="1">
-        <v>11.362538530960286</v>
+        <v>16.862802012703604</v>
       </c>
       <c r="H44" s="1">
-        <v>988.17460653559669</v>
+        <v>1104.7054408679955</v>
       </c>
       <c r="I44" s="1">
-        <v>1854.3704867774036</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1863.1638069688624</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>44</v>
       </c>
       <c r="B45" s="1">
-        <v>773.38296490679716</v>
+        <v>800.11638068520347</v>
       </c>
       <c r="C45" s="1">
-        <v>1433.9546261463624</v>
+        <v>1462.7951247218973</v>
       </c>
       <c r="D45" s="1">
-        <v>27.013503085396128</v>
+        <v>26.694004262920487</v>
       </c>
       <c r="E45" s="1">
-        <v>52.621660723930901</v>
+        <v>44.36866943219276</v>
       </c>
       <c r="F45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G45" s="1">
-        <v>5.4832570575145496</v>
+        <v>13.190780021448054</v>
       </c>
       <c r="H45" s="1">
-        <v>1020.1401938888043</v>
+        <v>1050.5249686779525</v>
       </c>
       <c r="I45" s="1">
-        <v>1774.181950436348</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1785.8218252202935</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>45</v>
       </c>
       <c r="B46" s="1">
-        <v>826.47764232027907</v>
+        <v>856.07303694528639</v>
       </c>
       <c r="C46" s="1">
-        <v>1507.6780656692501</v>
+        <v>1541.2442875731349</v>
       </c>
       <c r="D46" s="1">
-        <v>29.491881083213357</v>
+        <v>28.334820783765586</v>
       </c>
       <c r="E46" s="1">
-        <v>48.148826896648259</v>
+        <v>48.33411838489922</v>
       </c>
       <c r="F46" s="1">
-        <v>-3.4951939868969904E-2</v>
+        <v>-0.3618788500339068</v>
       </c>
       <c r="G46" s="1">
-        <v>6.7720937979038514</v>
+        <v>15.597598600821112</v>
       </c>
       <c r="H46" s="1">
-        <v>997.36145192840308</v>
+        <v>1107.7643957304279</v>
       </c>
       <c r="I46" s="1">
-        <v>1913.0756503945902</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1900.1416127895704</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>46</v>
       </c>
       <c r="B47" s="1">
-        <v>797.67945998525636</v>
+        <v>907.13331878554936</v>
       </c>
       <c r="C47" s="1">
-        <v>1580.2343828581352</v>
+        <v>1650.6846757508681</v>
       </c>
       <c r="D47" s="1">
-        <v>33.460937024738435</v>
+        <v>31.561715078014377</v>
       </c>
       <c r="E47" s="1">
-        <v>52.394181010671893</v>
+        <v>48.343433634426866</v>
       </c>
       <c r="F47" s="1">
-        <v>0.95739243186784906</v>
+        <v>-0.3514697042446272</v>
       </c>
       <c r="G47" s="1">
-        <v>7.7791369440987914</v>
+        <v>15.006306646546033</v>
       </c>
       <c r="H47" s="1">
-        <v>1066.6610194440648</v>
+        <v>1222.9480170411402</v>
       </c>
       <c r="I47" s="1">
-        <v>2123.1802859109803</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2104.7653276385176</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>47</v>
       </c>
       <c r="B48" s="1">
-        <v>850.53517743544285</v>
+        <v>870.06437280852288</v>
       </c>
       <c r="C48" s="1">
-        <v>1554.0905869485464</v>
+        <v>1593.4534230687202</v>
       </c>
       <c r="D48" s="1">
-        <v>26.015284871757167</v>
+        <v>25.515778280922678</v>
       </c>
       <c r="E48" s="1">
-        <v>57.868402251491993</v>
+        <v>59.423258683011284</v>
       </c>
       <c r="F48" s="1">
-        <v>1.4854271881505585</v>
+        <v>0.3697496331714214</v>
       </c>
       <c r="G48" s="1">
-        <v>4.6770021726074669</v>
+        <v>19.86522529378756</v>
       </c>
       <c r="H48" s="1">
-        <v>1029.725012972842</v>
+        <v>1111.4590751099186</v>
       </c>
       <c r="I48" s="1">
-        <v>2041.1636870881066</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2060.6820453612004</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>48</v>
       </c>
       <c r="B49" s="1">
-        <v>866.72176630801437</v>
+        <v>905.08448225277084</v>
       </c>
       <c r="C49" s="1">
-        <v>1535.2737835887531</v>
+        <v>1586.0643770879226</v>
       </c>
       <c r="D49" s="1">
-        <v>31.357960780596194</v>
+        <v>29.265354613332317</v>
       </c>
       <c r="E49" s="1">
-        <v>47.088529859382575</v>
+        <v>45.780175517879051</v>
       </c>
       <c r="F49" s="1">
-        <v>6.4573601390920124E-2</v>
+        <v>1</v>
       </c>
       <c r="G49" s="1">
-        <v>3.018158522664415</v>
+        <v>17.464336252575073</v>
       </c>
       <c r="H49" s="1">
-        <v>1071.4117307418085</v>
+        <v>1102.7903737744891</v>
       </c>
       <c r="I49" s="1">
-        <v>1752.6579372487736</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1773.9540973589903</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>49</v>
       </c>
       <c r="B50" s="1">
-        <v>663.53479918174526</v>
+        <v>999.37080349128064</v>
       </c>
       <c r="C50" s="1">
-        <v>1579.1913044699211</v>
+        <v>1468.2746155568411</v>
       </c>
       <c r="D50" s="1">
-        <v>29.529279926621285</v>
+        <v>32.050124706672555</v>
       </c>
       <c r="E50" s="1">
-        <v>50.23280018346771</v>
+        <v>52.703989151275373</v>
       </c>
       <c r="F50" s="1">
-        <v>0.54851007647710937</v>
+        <v>0.30684963397076465</v>
       </c>
       <c r="G50" s="1">
-        <v>4.2736005336016554</v>
+        <v>23.171166332260547</v>
       </c>
       <c r="H50" s="1">
-        <v>1034.4590283511081</v>
+        <v>1108.5088897600376</v>
       </c>
       <c r="I50" s="1">
-        <v>1848.5188079252428</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1862.6572879235655</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>50</v>
       </c>
       <c r="B51" s="1">
-        <v>617.38556418045437</v>
+        <v>881.84318662748058</v>
       </c>
       <c r="C51" s="1">
-        <v>1571.8869643552709</v>
+        <v>1613.876679759042</v>
       </c>
       <c r="D51" s="1">
-        <v>28.118533760719224</v>
+        <v>31.481685811319895</v>
       </c>
       <c r="E51" s="1">
-        <v>48.910934839658175</v>
+        <v>52.949771856291257</v>
       </c>
       <c r="F51" s="1">
-        <v>0.68884202142564477</v>
+        <v>5.8510210931417499E-2</v>
       </c>
       <c r="G51" s="1">
-        <v>2.7726563795297001</v>
+        <v>22.770382581260439</v>
       </c>
       <c r="H51" s="1">
-        <v>1014.0392908492148</v>
+        <v>1157.1241605649507</v>
       </c>
       <c r="I51" s="1">
-        <v>1868.1072826886436</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1895.9346846433677</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>51</v>
       </c>
       <c r="B52" s="1">
-        <v>407.43810747184557</v>
+        <v>522.0455206767449</v>
       </c>
       <c r="C52" s="1">
-        <v>1497.6327979330495</v>
+        <v>1733.0919131903252</v>
       </c>
       <c r="D52" s="1">
-        <v>32.926624131955613</v>
+        <v>31.401803701051595</v>
       </c>
       <c r="E52" s="1">
-        <v>56.865988515765864</v>
+        <v>51.185913764110524</v>
       </c>
       <c r="F52" s="1">
-        <v>2.257381972480176</v>
+        <v>0.8324393696238741</v>
       </c>
       <c r="G52" s="1">
-        <v>3.2329679130020552</v>
+        <v>23.07211936808158</v>
       </c>
       <c r="H52" s="1">
-        <v>1096.1336331547031</v>
+        <v>1162.503898933348</v>
       </c>
       <c r="I52" s="1">
-        <v>1859.4984019625786</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1893.8582374494249</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>52</v>
       </c>
       <c r="B53" s="1">
-        <v>419.40344889437557</v>
+        <v>541.09584036499632</v>
       </c>
       <c r="C53" s="1">
-        <v>1547.1207302826863</v>
+        <v>1920.5216209097391</v>
       </c>
       <c r="D53" s="1">
-        <v>27.542393993568613</v>
+        <v>27.856864449073012</v>
       </c>
       <c r="E53" s="1">
-        <v>49.728105501151113</v>
+        <v>53.410357376295188</v>
       </c>
       <c r="F53" s="1">
-        <v>0.71460001250615079</v>
+        <v>-0.10996111838351813</v>
       </c>
       <c r="G53" s="1">
-        <v>3.0747817476590837</v>
+        <v>20.287048127750907</v>
       </c>
       <c r="H53" s="1">
-        <v>1019.154000117266</v>
+        <v>1111.796858785526</v>
       </c>
       <c r="I53" s="1">
-        <v>1735.7668940947854</v>
+        <v>1901.8137322893579</v>
       </c>
     </row>
   </sheetData>
@@ -1997,7 +2006,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2009,7 +2018,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
